--- a/pred_ohlcv/54_21/2020-01-19 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>9864.488901979999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -730,7 +730,7 @@
         <v>12561.31880198</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10894.07340198</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>10927.91150198</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9432.598401980002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>9143.603501980002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9144.183501980002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9144.468501980002</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>9396.693001980002</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>9671.904601980003</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>7915.082601980002</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>8001.598921940002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7996.598921940002</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>8187.913321940002</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>8187.913321940002</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8391.947321940001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2594.00027129</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2594.91707129</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2309.62347129</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2309.62347129</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2309.62347129</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2284.204571289999</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2400.932771289999</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2140.13407129</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2090.34567129</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2123.34567129</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4014.92457129</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4768.56727129</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>4684.17127129</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4364.821271289999</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2998.488971289999</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>2672.318971289999</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2672.818971289999</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2821.918471289999</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2819.612371289999</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>1475.323571289999</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1475.323571289999</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-221.3976287100011</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-262.6512876800016</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4473.046212319999</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4473.046212319999</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>5282.396212319999</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>5148.989212319999</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>5127.589212319999</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4075.536112319999</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4076.036112319999</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4058.036112319999</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>4145.143012319999</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4276.080112319998</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4288.580112319998</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>4289.080112319998</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4289.080112319998</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4289.580112319998</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>4287.762112319998</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>4797.098812319998</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-19 HC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 HC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>9864.488901979999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>10357.66830198</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>13591.32920198</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>13591.32920198</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>13592.62960198</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>13054.49820198</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>12561.31880198</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>10875.35380198</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>10875.35380198</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>10894.07340198</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>10927.91150198</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>9432.598401980002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>9143.903601980002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>9144.183501980002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>9144.468501980002</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>9712.227601980003</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>9671.904601980003</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>8001.598921940002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>7996.598921940002</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>8187.913321940002</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>8187.913321940002</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>8733.236721940002</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>8733.736721940002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>8632.379621940003</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>8632.379621940003</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>8898.239021940002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>8873.939021940003</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>8672.548021940003</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>8673.048021940003</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>8511.352921940002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>8523.670921940002</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>8524.170921940002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>11961.23612194</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>8391.947321940001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>7006.145221940001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>10455.30442194</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>10413.90442194</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>10370.28662194</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>10282.97702194</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>9822.97702194</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>9538.30722194</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>7816.53192194</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>7816.53192194</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>7895.859421939999</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>6354.66252194</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2309.62347129</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2309.62347129</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2309.62347129</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2284.204571289999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2400.932771289999</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2140.13407129</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2090.34567129</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2123.34567129</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>4014.92457129</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>4768.56727129</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>4502.86277129</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>4381.203471289999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>4364.321271289999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>4364.821271289999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>4364.821271289999</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2998.488971289999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2998.488971289999</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>2672.318971289999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2672.818971289999</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2821.918471289999</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2777.495471289999</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2819.612371289999</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>1475.323571289999</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-221.3976287100011</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>5005.790127509998</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-262.6512876800016</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>4473.046212319999</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>4473.046212319999</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>5282.396212319999</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>5148.989212319999</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>5127.589212319999</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>4075.536112319999</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>4076.036112319999</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>4058.036112319999</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>4145.143012319999</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>4194.949512319999</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>4276.080112319998</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>4288.580112319998</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>4289.080112319998</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>4289.080112319998</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>4289.580112319998</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>4287.762112319998</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>4797.098812319998</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
